--- a/evaluation/outputs/model_output_overview.xlsx
+++ b/evaluation/outputs/model_output_overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceli/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceli/Desktop/asapp-2b/evaluation/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84ACB126-AEB9-1E41-B152-86A5C56B94A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5354223B-A941-CD45-8934-EBE423E031CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{139E48C6-F0C5-E449-8B6F-1F76A0FA4054}"/>
+    <workbookView xWindow="12480" yWindow="760" windowWidth="17560" windowHeight="17380" xr2:uid="{139E48C6-F0C5-E449-8B6F-1F76A0FA4054}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>medium_action_eval2</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>model</t>
+  </si>
+  <si>
+    <t>GPT2-medium w/ action</t>
+  </si>
+  <si>
+    <t>GPT2-medium w/o action</t>
+  </si>
+  <si>
+    <t>DistilGPT w/ action</t>
+  </si>
+  <si>
+    <t>DistilGPT w/o action</t>
   </si>
 </sst>
 </file>
@@ -64,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -251,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,24 +275,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,15 +621,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F3F6E5-B866-1D49-A38A-D5E525D4CFA1}">
-  <dimension ref="C3:E8"/>
+  <dimension ref="C3:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C14" sqref="C14:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="29.33203125" customWidth="1"/>
@@ -667,7 +691,64 @@
         <v>0.21247393855149799</v>
       </c>
     </row>
+    <row r="13" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.152</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>